--- a/data/trans_dic/P37A$vacunapreferencia-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunapreferencia-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.007292911757517628</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0373712462798876</v>
+        <v>0.03737124627988759</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.0170288787232448</v>
@@ -697,7 +697,7 @@
         <v>0.008251872923628487</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0198587493199801</v>
+        <v>0.01985874931998009</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007574073936796199</v>
+        <v>0.008842181401916317</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008911680143688153</v>
+        <v>0.00884495050713672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002282541934659251</v>
+        <v>0.002296603676829358</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006762903110946645</v>
+        <v>0.006592578330503019</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004778615337383251</v>
+        <v>0.004773205769080736</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002369347346225657</v>
+        <v>0.002381259728451631</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01767948475052422</v>
+        <v>0.01855065692953472</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01031853180994726</v>
+        <v>0.009939205377081267</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.009819418863698545</v>
+        <v>0.01004072246970581</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003463261873380156</v>
+        <v>0.003501421440923733</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.009055180124707045</v>
+        <v>0.01004889382674891</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03271093606662988</v>
+        <v>0.03635711859173378</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03568742685210564</v>
+        <v>0.03439448484893499</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02185609856531581</v>
+        <v>0.02295557539554008</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02550013162979287</v>
+        <v>0.02517639628006053</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03054262258886021</v>
+        <v>0.03123423287118573</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03225656949676475</v>
+        <v>0.03636699423753728</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01946150642728033</v>
+        <v>0.01990850823927515</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07321546194546261</v>
+        <v>0.07239405717653691</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02911908578383549</v>
+        <v>0.02772310225752878</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02682070960057605</v>
+        <v>0.02832722332066831</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01667289849365193</v>
+        <v>0.01554745829589903</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03591749775943904</v>
+        <v>0.03798973997315111</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01096280188484626</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06737530412158185</v>
+        <v>0.06737530412158187</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01482956072871818</v>
@@ -833,7 +833,7 @@
         <v>0.01037958505334255</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06041914711915261</v>
+        <v>0.06041914711915262</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0100223214761428</v>
+        <v>0.008966375002863699</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006219865104354345</v>
+        <v>0.006237205765851198</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003412757577729767</v>
+        <v>0.003526158731442311</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03010981299441258</v>
+        <v>0.02889820499445855</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004290894456725258</v>
+        <v>0.004176566567121274</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.007856696407972878</v>
+        <v>0.008022201505882275</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004372394428807221</v>
+        <v>0.003413922712058038</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04602929621961535</v>
+        <v>0.04524467049488896</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009458059606101115</v>
+        <v>0.009017347766581155</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009070621999107121</v>
+        <v>0.009164842357015214</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005751974428969586</v>
+        <v>0.005850384244719928</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04331575840173233</v>
+        <v>0.04521398443717889</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0286405012699858</v>
+        <v>0.02873045806098294</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02388163025597947</v>
+        <v>0.02462284157675688</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01950674974044812</v>
+        <v>0.02142807213797837</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08926376709296968</v>
+        <v>0.08013844636731615</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02574854907372597</v>
+        <v>0.02277176957547801</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02955697273321478</v>
+        <v>0.02757820328848662</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02323676203863378</v>
+        <v>0.02273498308671503</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09617225485412123</v>
+        <v>0.0959431216456713</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02360888693500691</v>
+        <v>0.02303546434749499</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02258981364202837</v>
+        <v>0.02257243376769971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01731921858548953</v>
+        <v>0.01973044918816106</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08124174328172722</v>
+        <v>0.08129549307387225</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.002696877230099273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07200529982897901</v>
+        <v>0.07200529982897899</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02828262641938819</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01159588921514249</v>
+        <v>0.01150825038028369</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01953574054044053</v>
+        <v>0.02068880030959419</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05145166154852477</v>
+        <v>0.05122931820530764</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01607475440716423</v>
+        <v>0.01675283788068231</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00866570075198999</v>
+        <v>0.008793522324917974</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002945864013409039</v>
+        <v>0.003194993522084936</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03598403928570081</v>
+        <v>0.03642323430738748</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01760780705677303</v>
+        <v>0.01715716522226968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01621744636689908</v>
+        <v>0.01620065589575726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002330510106586473</v>
+        <v>0.002129436526138531</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04939912765879258</v>
+        <v>0.04875493770297162</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03552765839546242</v>
+        <v>0.03568871677271181</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05024080215918243</v>
+        <v>0.04993887313749474</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008199165052260215</v>
+        <v>0.01015094178737536</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09900665691556577</v>
+        <v>0.09771479934130028</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04458840432269598</v>
+        <v>0.04526457999046081</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02743609745804892</v>
+        <v>0.02828473612315432</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02007784829764287</v>
+        <v>0.01906438651039486</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0655838045645399</v>
+        <v>0.06514847597366728</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03714998481816286</v>
+        <v>0.03617525888008006</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03413241297522682</v>
+        <v>0.03394348602309306</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01159774233159115</v>
+        <v>0.01137145114048853</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07604935634326357</v>
+        <v>0.07572832138586848</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01512946460330731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07454285627266566</v>
+        <v>0.07454285627266563</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01924659712911848</v>
@@ -1105,7 +1105,7 @@
         <v>0.01236332137875059</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08108473777769726</v>
+        <v>0.08108473777769729</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01548917582176077</v>
+        <v>0.01532206383985736</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01369723335538176</v>
+        <v>0.01499824278959284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006889108933666877</v>
+        <v>0.00635024055524708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05517912893905967</v>
+        <v>0.05690444906533316</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009490413784109638</v>
+        <v>0.009341113898265375</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.008599069930414899</v>
+        <v>0.008572780196214541</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004603108888885966</v>
+        <v>0.003206646404991043</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07132707809956364</v>
+        <v>0.07111147610628912</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01613741808958779</v>
+        <v>0.0157865375702384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01345311163215258</v>
+        <v>0.01438641759968563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00670271991784588</v>
+        <v>0.007198664599514137</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.069064486597916</v>
+        <v>0.0684527037105316</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05084525340336195</v>
+        <v>0.0513095651153016</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04260396229592589</v>
+        <v>0.04212468141519458</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02936097911716592</v>
+        <v>0.02908962811507256</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09785985723228001</v>
+        <v>0.09633549770939251</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03333211305411644</v>
+        <v>0.03407462280805948</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0321075993823853</v>
+        <v>0.03209270963027912</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02094765135994946</v>
+        <v>0.01826813334323168</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1062360988837039</v>
+        <v>0.104979217851853</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03713711914589168</v>
+        <v>0.03597019387587107</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03102993759585173</v>
+        <v>0.03274454476853199</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0209431991886915</v>
+        <v>0.02110881021374076</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09498457368293091</v>
+        <v>0.09516093388393047</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.02962543670190772</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1252110789191735</v>
+        <v>0.1252110789191736</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04831899507935274</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02839702812337819</v>
+        <v>0.02830815026559244</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02376823740620882</v>
+        <v>0.02329245704249127</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0109873822997839</v>
+        <v>0.01129286592227018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1013887564334499</v>
+        <v>0.1023200169962604</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02923117717490472</v>
+        <v>0.02986489318758605</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.009291598475667255</v>
+        <v>0.01089652355262071</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01532241050267375</v>
+        <v>0.0167424863499681</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1054482701111539</v>
+        <v>0.1064831348937391</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03536725288663545</v>
+        <v>0.03361981054466597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02031085006820535</v>
+        <v>0.02055619760316334</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01667594626377224</v>
+        <v>0.01720287862699955</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1107211361501629</v>
+        <v>0.1112859951149456</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07422049549557588</v>
+        <v>0.0712306011992019</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05955921641224139</v>
+        <v>0.06157599293762162</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04074959724350476</v>
+        <v>0.0421227062257071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1520960992242922</v>
+        <v>0.1565575164233194</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07438715525731375</v>
+        <v>0.07391649632624163</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03777914741119569</v>
+        <v>0.03740748739509408</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05157465999306458</v>
+        <v>0.05140693206539482</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1485805877718978</v>
+        <v>0.1471231578256387</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06568239712197101</v>
+        <v>0.06507004455274183</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04293124761858518</v>
+        <v>0.04273710228812266</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03933028323645852</v>
+        <v>0.03914621184502904</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1437088313197236</v>
+        <v>0.1433477606874863</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02897605355290637</v>
+        <v>0.02891230305593037</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04190616581856275</v>
+        <v>0.04173235397820151</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01765205214371161</v>
+        <v>0.01808878117370413</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.102853457886278</v>
+        <v>0.1025570355887884</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.024444311279697</v>
+        <v>0.02575325483125051</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02535098435163189</v>
+        <v>0.02508326377021343</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02196659880092186</v>
+        <v>0.02159946569333571</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09249505500901412</v>
+        <v>0.09111257297187975</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03022508144770792</v>
+        <v>0.03157953217184222</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03927058975287028</v>
+        <v>0.03751575907989501</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02525218301918812</v>
+        <v>0.02422476511286835</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.104753860821965</v>
+        <v>0.1026121569199085</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07883456635473321</v>
+        <v>0.08135792651963708</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09786317363368917</v>
+        <v>0.09444390423845629</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05890746086405312</v>
+        <v>0.05835045022294141</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1601428165876823</v>
+        <v>0.1592800019790407</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06532624279640489</v>
+        <v>0.06764285451755721</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06611800573179505</v>
+        <v>0.06774685933063071</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06688401424709534</v>
+        <v>0.06255699859064835</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1355641446279752</v>
+        <v>0.1356337112498441</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06103192622659791</v>
+        <v>0.06223822393946682</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07281074869143514</v>
+        <v>0.07162345887134972</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05420131325027745</v>
+        <v>0.05312269893546678</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1404094688588788</v>
+        <v>0.1386528869029553</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.03179942781358871</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.05306721169630816</v>
+        <v>0.05306721169630815</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.02861039582333019</v>
@@ -1513,7 +1513,7 @@
         <v>0.03610519559211158</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.06232780217457558</v>
+        <v>0.06232780217457557</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01659957207390096</v>
+        <v>0.01615429050566884</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02105255065591453</v>
+        <v>0.0215807648063595</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02455459399200693</v>
+        <v>0.02419852331010869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05268039111049876</v>
+        <v>0.0546253842637632</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01026377411198668</v>
+        <v>0.00919745962276854</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.007821322286105475</v>
+        <v>0.008005218794942674</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0158631887476297</v>
+        <v>0.01591648544627835</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03896426890012157</v>
+        <v>0.03979159587633976</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01527362543466922</v>
+        <v>0.01610017503973149</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0164063850178636</v>
+        <v>0.01673858975209687</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02336002250555621</v>
+        <v>0.02415515134305961</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04986153902863252</v>
+        <v>0.05013154163591869</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07251705134463195</v>
+        <v>0.06902597426030914</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09360614389250423</v>
+        <v>0.08977872543148933</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06823961088154991</v>
+        <v>0.0698367225904559</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1055968121944525</v>
+        <v>0.1072119858791582</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04861854517380229</v>
+        <v>0.04923170903862136</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03328652027470241</v>
+        <v>0.03497111860654162</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05712739274582135</v>
+        <v>0.05628237092553036</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0693412636024207</v>
+        <v>0.06942329691219334</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04741843268433766</v>
+        <v>0.04773696419634</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04590727850987757</v>
+        <v>0.04494765716358275</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05165438303867915</v>
+        <v>0.05322638200645467</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07760073553738203</v>
+        <v>0.07704406567644442</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.01612896315600401</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.07848759188355858</v>
+        <v>0.07848759188355856</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.02539704821019888</v>
@@ -1649,7 +1649,7 @@
         <v>0.01708228783864698</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.07852081520358206</v>
+        <v>0.07852081520358205</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02227103448889533</v>
+        <v>0.02260548657989828</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02507076128248122</v>
+        <v>0.02492673095868363</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.012444650944344</v>
+        <v>0.01267839570999348</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06948798926890647</v>
+        <v>0.06962842548003721</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02055905311988722</v>
+        <v>0.02034960394628156</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01515878395978851</v>
+        <v>0.01464172625743097</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01356303550495595</v>
+        <v>0.01384655924060113</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.071203822961588</v>
+        <v>0.07105170135633329</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02209433421305369</v>
+        <v>0.02283937826353471</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02141079622364449</v>
+        <v>0.02119588181278059</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0141112219745042</v>
+        <v>0.01427992604185112</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07308447410665245</v>
+        <v>0.07299098884762817</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03442974265203021</v>
+        <v>0.03437869298486995</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03672655997585207</v>
+        <v>0.03797679973509614</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02124627546719885</v>
+        <v>0.02133558388424528</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08826347350438817</v>
+        <v>0.08841763022063404</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03133230507107263</v>
+        <v>0.03120167422214151</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02404645688084824</v>
+        <v>0.02444413795098214</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02353516702760737</v>
+        <v>0.02292535442005354</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.08638381948184316</v>
+        <v>0.08581954980200397</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03083307366561911</v>
+        <v>0.03109218256379285</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02873619031676033</v>
+        <v>0.02877769064922969</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02044972403774415</v>
+        <v>0.02045556167342535</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08445853315539513</v>
+        <v>0.08495260955912377</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3742</v>
+        <v>4369</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4047</v>
+        <v>4017</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3162</v>
+        <v>3082</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6409</v>
+        <v>6725</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9922</v>
+        <v>9557</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8684</v>
+        <v>8880</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2823</v>
+        <v>2854</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6975</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16161</v>
+        <v>17963</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16207</v>
+        <v>15620</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9168</v>
+        <v>9629</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10399</v>
+        <v>10267</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14278</v>
+        <v>14602</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13878</v>
+        <v>15646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7702</v>
+        <v>7879</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26541</v>
+        <v>26244</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28000</v>
+        <v>26657</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23720</v>
+        <v>25052</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13592</v>
+        <v>12675</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27667</v>
+        <v>29264</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7371</v>
+        <v>6595</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4274</v>
+        <v>4286</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2015</v>
+        <v>2082</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14359</v>
+        <v>13781</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2684</v>
+        <v>2612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4795</v>
+        <v>4896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2464</v>
+        <v>1924</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23094</v>
+        <v>22701</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12872</v>
+        <v>12272</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11768</v>
+        <v>11890</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6638</v>
+        <v>6752</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>42390</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21065</v>
+        <v>21131</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16409</v>
+        <v>16918</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11519</v>
+        <v>12653</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>42569</v>
+        <v>38217</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16106</v>
+        <v>14244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18037</v>
+        <v>16830</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13095</v>
+        <v>12812</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48253</v>
+        <v>48138</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>32131</v>
+        <v>31351</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>29307</v>
+        <v>29284</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19987</v>
+        <v>22770</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>79505</v>
+        <v>79558</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7406</v>
+        <v>7350</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13321</v>
+        <v>14107</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31943</v>
+        <v>31805</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11087</v>
+        <v>11555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6160</v>
+        <v>6251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1948</v>
+        <v>2113</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22425</v>
+        <v>22699</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>23390</v>
+        <v>22792</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22586</v>
+        <v>22563</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3101</v>
+        <v>2833</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>61454</v>
+        <v>60653</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22690</v>
+        <v>22793</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34257</v>
+        <v>34051</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5486</v>
+        <v>6792</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61467</v>
+        <v>60665</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30755</v>
+        <v>31221</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19503</v>
+        <v>20106</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13279</v>
+        <v>12609</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40871</v>
+        <v>40600</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49350</v>
+        <v>48056</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>47537</v>
+        <v>47274</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15431</v>
+        <v>15130</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>94608</v>
+        <v>94208</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8041</v>
+        <v>7954</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8419</v>
+        <v>9218</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4451</v>
+        <v>4103</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>38659</v>
+        <v>39868</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4894</v>
+        <v>4817</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5299</v>
+        <v>5283</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2988</v>
+        <v>2081</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>52560</v>
+        <v>52401</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16699</v>
+        <v>16336</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>16558</v>
+        <v>17707</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8681</v>
+        <v>9323</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>99280</v>
+        <v>98401</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26396</v>
+        <v>26637</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26185</v>
+        <v>25891</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18969</v>
+        <v>18793</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>68562</v>
+        <v>67494</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17187</v>
+        <v>17570</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>19785</v>
+        <v>19775</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13597</v>
+        <v>11857</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>78284</v>
+        <v>77358</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>38429</v>
+        <v>37222</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>38192</v>
+        <v>40303</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>27124</v>
+        <v>27339</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>136541</v>
+        <v>136794</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10981</v>
+        <v>10947</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10207</v>
+        <v>10002</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5251</v>
+        <v>5397</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61781</v>
+        <v>62348</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11809</v>
+        <v>12065</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4161</v>
+        <v>4879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7613</v>
+        <v>8318</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>64203</v>
+        <v>64833</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27965</v>
+        <v>26583</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>17817</v>
+        <v>18032</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>16255</v>
+        <v>16769</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>134881</v>
+        <v>135569</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28702</v>
+        <v>27546</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25576</v>
+        <v>26443</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19475</v>
+        <v>20131</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>92679</v>
+        <v>95398</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30051</v>
+        <v>29861</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>16918</v>
+        <v>16751</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25625</v>
+        <v>25541</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>90464</v>
+        <v>89577</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>51935</v>
+        <v>51451</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>37661</v>
+        <v>37490</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>38338</v>
+        <v>38158</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>175066</v>
+        <v>174627</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>8478</v>
+        <v>8459</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12982</v>
+        <v>12928</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5902</v>
+        <v>6048</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>41870</v>
+        <v>41749</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>8383</v>
+        <v>8832</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>8974</v>
+        <v>8879</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8298</v>
+        <v>8159</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>40621</v>
+        <v>40014</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>19209</v>
+        <v>20069</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>26067</v>
+        <v>24902</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>17982</v>
+        <v>17250</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>88648</v>
+        <v>86835</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>23066</v>
+        <v>23804</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30317</v>
+        <v>29257</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19695</v>
+        <v>19508</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>65191</v>
+        <v>64840</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>22403</v>
+        <v>23197</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>23406</v>
+        <v>23982</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25266</v>
+        <v>23632</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>59535</v>
+        <v>59566</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>38787</v>
+        <v>39553</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>48330</v>
+        <v>47542</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>38596</v>
+        <v>37828</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>118821</v>
+        <v>117334</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3484</v>
+        <v>3391</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5260</v>
+        <v>5392</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6310</v>
+        <v>6219</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16341</v>
+        <v>16945</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3427</v>
+        <v>3071</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3042</v>
+        <v>3114</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6348</v>
+        <v>6369</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>18103</v>
+        <v>18488</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>8306</v>
+        <v>8755</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>10481</v>
+        <v>10693</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>15351</v>
+        <v>15874</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>38633</v>
+        <v>38842</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15220</v>
+        <v>14487</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>23388</v>
+        <v>22431</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17537</v>
+        <v>17948</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>32756</v>
+        <v>33257</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16234</v>
+        <v>16439</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12948</v>
+        <v>13603</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>22861</v>
+        <v>22522</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>32217</v>
+        <v>32255</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>25786</v>
+        <v>25959</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>29327</v>
+        <v>28714</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>33946</v>
+        <v>34979</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>60126</v>
+        <v>59694</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>72972</v>
+        <v>74068</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>85912</v>
+        <v>85418</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>42242</v>
+        <v>43035</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>245485</v>
+        <v>245981</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>69473</v>
+        <v>68765</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>53940</v>
+        <v>52100</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>48075</v>
+        <v>49080</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>266085</v>
+        <v>265517</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>147054</v>
+        <v>152013</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>149556</v>
+        <v>148055</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>97916</v>
+        <v>99087</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>531303</v>
+        <v>530624</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>112811</v>
+        <v>112643</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>125854</v>
+        <v>130138</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>72117</v>
+        <v>72420</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>311814</v>
+        <v>312358</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>105878</v>
+        <v>105437</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>85565</v>
+        <v>86980</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>83421</v>
+        <v>81260</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>322812</v>
+        <v>320704</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>205217</v>
+        <v>206942</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>200725</v>
+        <v>201015</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>141898</v>
+        <v>141939</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>613990</v>
+        <v>617581</v>
       </c>
     </row>
     <row r="36">
